--- a/biology/Botanique/Cruciata/Cruciata.xlsx
+++ b/biology/Botanique/Cruciata/Cruciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cruciata est un genre de plantes de la famille des Rubiacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (23 mai 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 mai 2023) :
 Cruciata articulata (L.) Ehrend.
 Cruciata elbrussica (Pobed.) Pobed.
 Cruciata laevipes Opiz
@@ -522,17 +536,17 @@
 Cruciata taurica (Pall. ex Willd.) Ehrend.
 Cruciata valentinae (Galushko) Galushko
 Cruciata verna (Scop.) Gutermann &amp; Ehrend.
-Selon ITIS      (23 mai 2023)[2] :
+Selon ITIS      (23 mai 2023) :
 Cruciata laevipes Opiz
 Cruciata pedemontana (Bellardi) Ehrend.
-Selon NCBI  (23 mai 2023)[3] :
+Selon NCBI  (23 mai 2023) :
 Cruciata articulata (L.) Ehrend., 1958
 Cruciata glabra (L.) Ehrend.
 Cruciata laevipes Opiz
 Cruciata pedemontana (Bellardi) Ehrend.
 Cruciata taurica (Pall. ex Willd.) Ehrend.
 Cruciata verna (Scop.) Gutermann &amp; Ehrend.
-Selon The Plant List            (23 mai 2023)[4] :
+Selon The Plant List            (23 mai 2023) :
 Cruciata articulata (L.) Ehrend.
 Cruciata elbrussica (Pobed.) Pobed.
 Cruciata glabra (L.) Opiz
@@ -543,7 +557,7 @@
 Cruciata pseudopolycarpa Pobed.
 Cruciata taurica (Pall. ex Willd.) Ehrend.
 Cruciata valentinae (Galushko) Galushko
-Selon Tropicos                                           (23 mai 2023)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 mai 2023) (Attention liste brute contenant possiblement des synonymes) :
 Cruciata armeniaca Mikheev
 Cruciata articulata (L.) Ehrend.
 Cruciata balcanica Ehrend.
